--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,22 +22,31 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>004350</t>
+  </si>
+  <si>
     <t>290012</t>
   </si>
   <si>
     <t>002583</t>
   </si>
   <si>
-    <t>004350</t>
+    <t>汇丰晋信价值先锋股票</t>
   </si>
   <si>
     <t>泰信行业精选灵活配置混合A</t>
@@ -46,19 +55,28 @@
     <t>泰信行业精选灵活配置混合C</t>
   </si>
   <si>
-    <t>汇丰晋信价值先锋股票</t>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>93.28</t>
   </si>
   <si>
     <t>94.09</t>
   </si>
   <si>
-    <t>93.28</t>
+    <t>4.37</t>
   </si>
   <si>
     <t>5.09</t>
   </si>
   <si>
-    <t>4.37</t>
+    <t>0.0345</t>
+  </si>
+  <si>
+    <t>0.0331</t>
   </si>
 </sst>
 </file>
@@ -416,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,64 +456,85 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -1,114 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004350</t>
-  </si>
-  <si>
-    <t>290012</t>
-  </si>
-  <si>
-    <t>002583</t>
-  </si>
-  <si>
-    <t>汇丰晋信价值先锋股票</t>
-  </si>
-  <si>
-    <t>泰信行业精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>泰信行业精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>93.28</t>
-  </si>
-  <si>
-    <t>94.09</t>
-  </si>
-  <si>
-    <t>4.37</t>
-  </si>
-  <si>
-    <t>5.09</t>
-  </si>
-  <si>
-    <t>0.0345</t>
-  </si>
-  <si>
-    <t>0.0331</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,112 +446,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -812,4 +813,210 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1019,4 +1020,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1028,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,17 +1040,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1059,14 +1080,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.8</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1075,14 +1118,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.67</v>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1091,13 +1156,247 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1311,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,17 +1323,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1363,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.2</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1358,14 +1401,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.8</v>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1374,14 +1439,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -1390,13 +1477,187 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1556,7 +1557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,17 +1568,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1587,14 +1608,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.1</v>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1603,14 +1646,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -1619,14 +1684,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.8</v>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1635,14 +1722,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.67</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1651,13 +1760,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,160 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -619,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -680,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>55.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5455</t>
+          <t>2.0973</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -718,22 +687,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.02</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0879</t>
+          <t>0.0594</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -746,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>013620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>华安媒体互联网混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0498</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -784,34 +753,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>002583</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -886,26 +933,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.29</t>
+          <t>51.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6618</t>
+          <t>1.9870</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -924,26 +971,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.64</t>
+          <t>97.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1035</t>
+          <t>0.0537</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -962,26 +1009,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0436</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -990,34 +1037,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>002583</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,7 +1419,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1374,26 +1459,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>51.61</t>
+          <t>46.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9870</t>
+          <t>1.6618</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1412,26 +1497,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.27</t>
+          <t>97.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.1035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1450,26 +1535,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0436</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1478,72 +1563,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516620</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证影视主题ETF</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.08</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,7 +1625,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1618,26 +1665,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.63</t>
+          <t>45.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>82.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0973</t>
+          <t>1.5455</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1656,22 +1703,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>98.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0594</t>
+          <t>0.0879</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1684,36 +1731,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013620</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合C</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0498</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1722,112 +1769,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>516620</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证影视主题ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1841,128 +1810,159 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.27</v>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.1</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -583,6 +600,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1110,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1385,212 +1800,6 @@
       </c>
       <c r="H7" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6618</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159855</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华中证影视主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1665,22 +1874,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>46.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5455</t>
+          <t>1.6618</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1703,26 +1912,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.02</t>
+          <t>97.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0879</t>
+          <t>0.1035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1741,26 +1950,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1784,19 +1993,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1805,6 +2014,212 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
+++ b/数据整理/stocks/A股/上证主板/600977-中国电影.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>2.19</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -600,6 +617,742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>017766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>017462</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏兴和混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1525,7 +2278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1800,212 +2553,6 @@
       </c>
       <c r="H7" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6618</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159855</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华中证影视主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2080,22 +2627,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>46.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5455</t>
+          <t>1.6618</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2118,26 +2665,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.02</t>
+          <t>97.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0879</t>
+          <t>0.1035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2156,26 +2703,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2199,19 +2746,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2220,6 +2767,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
